--- a/expimp/work_material.xlsx
+++ b/expimp/work_material.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,50 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>02a69ac6-b32c-45b0-bbe4-0fd8510541ad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>116dc867-95a6-40f9-b29c-618ac6ab8667</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7d55d30d-7701-45ed-b61d-9c788575a02a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6c6ddc5d-967a-4a90-8d60-f5dadca77ed6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8d758522-a4b7-4154-bc0f-1d9fbafccb2a</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7240957a-ece8-4152-8845-d55b0571445c</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
